--- a/Introdução a Computação/EXCEL/Introdução a Computação - AULA 4 EXCEL.xlsx
+++ b/Introdução a Computação/EXCEL/Introdução a Computação - AULA 4 EXCEL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26522"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26531"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_C942EB14E824190922B985865646BBFBA2DCD2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="11_C942EB14E824190922B985865646BBFBA2DCD2AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{187BD79A-0CE1-48E3-B697-96ACD552E96C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AULA 4 - LOCADORA DE CARROS" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,22 @@
     <sheet name="AULA 4 - PAGAMENTOS" sheetId="4" r:id="rId4"/>
     <sheet name="AULA 4 - DOLAR" sheetId="5" r:id="rId5"/>
     <sheet name="ESTUDANTIL" sheetId="6" r:id="rId6"/>
+    <sheet name="SE" sheetId="7" r:id="rId7"/>
+    <sheet name="Média Geral" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="147">
   <si>
     <t>Inova Locadora de Carros</t>
   </si>
@@ -373,6 +386,99 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>Situação Final do aluno</t>
+  </si>
+  <si>
+    <t>ALUNOS</t>
+  </si>
+  <si>
+    <t>N° FALTAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MÉDIA </t>
+  </si>
+  <si>
+    <t>SITUAÇÃO 1</t>
+  </si>
+  <si>
+    <t>Situação 2</t>
+  </si>
+  <si>
+    <t>Beatriz</t>
+  </si>
+  <si>
+    <t>Enrico</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>APROVAR O ALUNO SOMENTE SE A MÉDIA FOR MAIOR OU IGUAL A 7 e as faltas &lt; 100</t>
+  </si>
+  <si>
+    <t>E AO MESMO TEMPO O N° DE FALTAS FOR MENOR OU IGUAL A 125</t>
+  </si>
+  <si>
+    <t>PLANILHA DE NOTAS</t>
+  </si>
+  <si>
+    <t>Disciplinas</t>
+  </si>
+  <si>
+    <t>NOTA1</t>
+  </si>
+  <si>
+    <t>NOTA2</t>
+  </si>
+  <si>
+    <t>MÉDIA 1 SEMESTRE</t>
+  </si>
+  <si>
+    <t>MÉDIA 2 SEMESTRE</t>
+  </si>
+  <si>
+    <t>Média GERAL</t>
+  </si>
+  <si>
+    <t>FALTAS</t>
+  </si>
+  <si>
+    <t>SITUAÇÃO</t>
+  </si>
+  <si>
+    <t>Introdução a Computação</t>
+  </si>
+  <si>
+    <t>Matematica</t>
+  </si>
+  <si>
+    <t>Introdução a Lógica</t>
+  </si>
+  <si>
+    <t>Algorítmos</t>
+  </si>
+  <si>
+    <t>Inglês</t>
+  </si>
+  <si>
+    <t>Estatística</t>
+  </si>
+  <si>
+    <t>Matematica Discreta</t>
+  </si>
+  <si>
+    <t>Para mudar a cor do conteúdo da célula:</t>
+  </si>
+  <si>
+    <t>Menu Página Inicial--&gt; Formatação Condicional --&gt; Nova Regra</t>
   </si>
 </sst>
 </file>
@@ -391,7 +497,7 @@
     <numFmt numFmtId="172" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="173" formatCode="_-&quot;R$ &quot;* #,##0.00_-;&quot;-R$ &quot;* #,##0.00_-;_-&quot;R$ &quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -580,8 +686,93 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF60497A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,6 +909,60 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFAC090"/>
         <bgColor rgb="FFFABF8F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DCDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4D79B"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1006,48 +1251,9 @@
     <xf numFmtId="173" fontId="25" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1199,9 +1405,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1295,6 +1498,86 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="3" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1310,6 +1593,10 @@
     <xf numFmtId="0" fontId="21" fillId="23" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Bad" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1317,7 +1604,54 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1712,213 +2046,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="7">
         <v>120</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="8">
         <f>(B5+B5*$C$3)</f>
         <v>180</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="9">
         <v>5</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="10">
         <f>(D5*B5)</f>
         <v>600</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="11">
         <f>(D5*C5)</f>
         <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="7">
         <v>70</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="8">
         <f>(B6+B6*$C$3)</f>
         <v>105</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="9">
         <v>12</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="10">
         <f>(D6*B6)</f>
         <v>840</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="11">
         <f>(D6*C6)</f>
         <v>1260</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="7">
         <v>150</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="8">
         <f>(B7+B7*$C$3)</f>
         <v>225</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="9">
         <v>8</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="10">
         <f>(D7*B7)</f>
         <v>1200</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="11">
         <f>(D7*C7)</f>
         <v>1800</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="7">
         <v>200</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="8">
         <f>(B8+B8*$C$3)</f>
         <v>300</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="9">
         <v>6</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="10">
         <f>(D8*B8)</f>
         <v>1200</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="11">
         <f>(D8*C8)</f>
         <v>1800</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="7">
         <v>250</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="8">
         <f>(B9+B9*$C$3)</f>
         <v>375</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="9">
         <v>2</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="10">
         <f>(D9*B9)</f>
         <v>500</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="11">
         <f>(D9*C9)</f>
         <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="7">
         <v>350</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="8">
         <f>(B10+B10*$C$3)</f>
         <v>525</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="9">
         <v>10</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="10">
         <f>(D10*B10)</f>
         <v>3500</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="11">
         <f>(D10*C10)</f>
         <v>5250</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="7">
         <v>150</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="8">
         <f>(B11+B11*$C$3)</f>
         <v>225</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="9">
         <v>10</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="10">
         <f>(D11*B11)</f>
         <v>1500</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="11">
         <f>(D11*C11)</f>
         <v>2250</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="12">
         <f>SUM(E5:E11)</f>
         <v>9340</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="13">
         <f>SUM(F5:F11)</f>
         <v>14010</v>
       </c>
@@ -1947,448 +2281,446 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="117"/>
+      <c r="F2" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="117"/>
+      <c r="H2" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="30">
+      <c r="A4" s="17">
         <v>45056</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="19">
         <v>2</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="19">
         <v>2</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="19">
         <v>1</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="18">
         <v>2</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="30">
+      <c r="A5" s="17">
         <v>45057</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="18">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="18">
         <v>4</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="19">
         <v>2</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="19">
         <v>1</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="19">
         <v>2</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="19">
         <v>1</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="18">
         <v>2</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="30">
+      <c r="A6" s="17">
         <v>45058</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="18">
         <v>3</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="19">
         <v>5</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="19">
         <v>1</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="19">
         <v>2</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="19">
         <v>1</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="18">
         <v>2</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="30">
+      <c r="A7" s="17">
         <v>45059</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="18">
         <v>5</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="19">
         <v>2</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="19">
         <v>3</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="19">
         <v>2</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="19">
         <v>1</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="18">
         <v>2</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="30">
+      <c r="A8" s="17">
         <v>45060</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="19">
         <v>10</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="19">
         <v>3</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="19">
         <v>5</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="19">
         <v>2</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="19">
         <v>1</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="18">
         <v>2</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="30">
+      <c r="A9" s="17">
         <v>45061</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="19">
         <v>2</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="19">
         <v>5</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="19">
         <v>5</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="19">
         <v>10</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="19">
         <v>2</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="19">
         <v>1</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="18">
         <v>2</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="30">
+      <c r="A10" s="17">
         <v>45062</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="18">
         <v>3</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="18">
         <v>3</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="19">
         <v>4</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="19">
         <v>1</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="19">
         <v>2</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="19">
         <v>1</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="18">
         <v>2</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="21">
         <f>SUM(B4:B10)</f>
         <v>26</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="21">
         <f>SUM(C4:C10)</f>
         <v>20</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="21">
         <f>SUM(D4:D10)</f>
         <v>25</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="21">
         <f>SUM(E4:E10)</f>
         <v>18</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="21">
         <f>SUM(F4:F10)</f>
         <v>14</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="21">
         <f>SUM(G4:G10)</f>
         <v>7</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="21">
         <f>SUM(H4:H10)</f>
         <v>14</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="21">
         <f>SUM(I4:I10)</f>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="118"/>
+      <c r="C15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="18.75">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="40">
+      <c r="B16" s="119"/>
+      <c r="C16" s="27">
         <f t="array" ref="C16">SUM(B4:B10-C4:C10)</f>
         <v>6</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="28">
         <v>90</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="29">
         <f>(D16*C16)</f>
         <v>540</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" ht="18.75">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="40">
+      <c r="B17" s="119"/>
+      <c r="C17" s="27">
         <f t="array" ref="C17">SUM(D5:D11-E5:E11)</f>
         <v>13</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="28">
         <v>50</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="29">
         <f>(D17*C17)</f>
         <v>650</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="18.75">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="40">
+      <c r="B18" s="119"/>
+      <c r="C18" s="27">
         <f t="array" ref="C18">SUM(F4:F10-G4:G10)</f>
         <v>7</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="28">
         <v>20</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="29">
         <f>(D18*C18)</f>
         <v>140</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" ht="18.75">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="40">
+      <c r="B19" s="119"/>
+      <c r="C19" s="27">
         <f t="array" ref="C19">SUM(H4:H10-I4:I10)</f>
         <v>4</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="28">
         <v>120</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="29">
         <f>(D19*C19)</f>
         <v>480</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="B2:C2"/>
@@ -2396,6 +2728,8 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2425,335 +2759,335 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="34">
         <v>30</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="48" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="36">
         <v>0.2</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="34">
         <v>12</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="39">
         <v>39</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="45"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="120"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="8" t="s">
+      <c r="F6" s="121"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="59" t="s">
+      <c r="G7" s="43"/>
+      <c r="H7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="60" t="s">
+      <c r="J7" s="32"/>
+      <c r="K7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="61" t="s">
+      <c r="L7" s="48" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="46">
         <v>12</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="50">
         <f>(B8*B3)</f>
         <v>144</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="57">
+      <c r="D8" s="32"/>
+      <c r="E8" s="44">
         <v>5</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="51">
         <f>(E8*$B$2)</f>
         <v>150</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="59">
+      <c r="G8" s="32"/>
+      <c r="H8" s="46">
         <v>2</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="51">
         <f>(H8*$B$4)</f>
         <v>78</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="65">
+      <c r="J8" s="32"/>
+      <c r="K8" s="52">
         <f>SUM(I8,F8,C8)</f>
         <v>372</v>
       </c>
-      <c r="L8" s="63">
+      <c r="L8" s="50">
         <f>(K8*$F$2)</f>
         <v>74.400000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="46">
         <v>5</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="50">
         <f>(B9*$B$3)</f>
         <v>60</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="57">
+      <c r="D9" s="32"/>
+      <c r="E9" s="44">
         <v>6</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="51">
         <f>(E9*$B$2)</f>
         <v>180</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="59">
+      <c r="G9" s="32"/>
+      <c r="H9" s="46">
         <v>5</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="51">
         <f>(H9*$B$4)</f>
         <v>195</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="65">
+      <c r="J9" s="32"/>
+      <c r="K9" s="52">
         <f>SUM(I9,F9,C9)</f>
         <v>435</v>
       </c>
-      <c r="L9" s="63">
+      <c r="L9" s="50">
         <f>(K9*$F$2)</f>
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="46">
         <v>9</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="50">
         <f>(B10*$B$3)</f>
         <v>108</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="57">
+      <c r="D10" s="32"/>
+      <c r="E10" s="44">
         <v>9</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="51">
         <f>(E10*$B$2)</f>
         <v>270</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="59">
+      <c r="G10" s="32"/>
+      <c r="H10" s="46">
         <v>9</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="51">
         <f>(H10*$B$4)</f>
         <v>351</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="65">
+      <c r="J10" s="32"/>
+      <c r="K10" s="52">
         <f>SUM(I10,F10,C10)</f>
         <v>729</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L10" s="50">
         <f>(K10*$F$2)</f>
         <v>145.80000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="46">
         <v>7</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="50">
         <f>(B11*$B$3)</f>
         <v>84</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="57">
+      <c r="D11" s="32"/>
+      <c r="E11" s="44">
         <v>4</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="51">
         <f>(E11*$B$2)</f>
         <v>120</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="59">
+      <c r="G11" s="32"/>
+      <c r="H11" s="46">
         <v>2</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="51">
         <f>(H11*$B$4)</f>
         <v>78</v>
       </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="65">
+      <c r="J11" s="32"/>
+      <c r="K11" s="52">
         <f>SUM(I11,F11,C11)</f>
         <v>282</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="50">
         <f>(K11*$F$2)</f>
-        <v>56.4</v>
+        <v>56.400000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="46">
         <v>4</v>
       </c>
-      <c r="C12" s="63">
+      <c r="C12" s="50">
         <f>(B12*$B$3)</f>
         <v>48</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="57">
+      <c r="D12" s="32"/>
+      <c r="E12" s="44">
         <v>3</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="51">
         <f>(E12*$B$2)</f>
         <v>90</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="59">
+      <c r="G12" s="32"/>
+      <c r="H12" s="46">
         <v>7</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="51">
         <f>(H12*$B$4)</f>
         <v>273</v>
       </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="65">
+      <c r="J12" s="32"/>
+      <c r="K12" s="52">
         <f>SUM(I12,F12,C12)</f>
         <v>411</v>
       </c>
-      <c r="L12" s="63">
+      <c r="L12" s="50">
         <f>(K12*$F$2)</f>
         <v>82.2</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="C16" s="67"/>
-      <c r="L16" s="67"/>
+      <c r="C16" s="54"/>
+      <c r="L16" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2771,398 +3105,398 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="54.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="126" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="68" t="s">
+      <c r="A3" s="124"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="126" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="69">
+      <c r="A4" s="124"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="55">
         <v>0.1</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="55">
         <v>0.08</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="55">
         <v>0.15</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="126"/>
     </row>
     <row r="5" spans="1:7" ht="13.9">
-      <c r="A5" s="70">
+      <c r="A5" s="44">
         <v>1</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="57">
         <v>1017.83</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="58">
         <f>(C5*$D$4)</f>
-        <v>101.783</v>
-      </c>
-      <c r="E5" s="72">
+        <v>101.78300000000002</v>
+      </c>
+      <c r="E5" s="58">
         <f>(C5*$E$4)</f>
         <v>81.426400000000001</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="58">
         <f>(C5*$F$4)</f>
         <v>152.67449999999999</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="58">
         <f>(C5-D5-E5-F5)</f>
         <v>681.9461</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.9">
-      <c r="A6" s="70">
+      <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="57">
         <v>693.93</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="58">
         <f>(C6*$D$4)</f>
         <v>69.393000000000001</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="58">
         <f>(C6*$E$4)</f>
-        <v>55.514400000000002</v>
-      </c>
-      <c r="F6" s="72">
+        <v>55.514399999999995</v>
+      </c>
+      <c r="F6" s="58">
         <f>(C6*$F$4)</f>
-        <v>104.0895</v>
-      </c>
-      <c r="G6" s="72">
+        <v>104.08949999999999</v>
+      </c>
+      <c r="G6" s="58">
         <f>(C6-D6-E6-F6)</f>
-        <v>464.93310000000002</v>
+        <v>464.93309999999991</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.9">
-      <c r="A7" s="70">
+      <c r="A7" s="44">
         <v>3</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="57">
         <v>922.5</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="58">
         <f>(C7*$D$4)</f>
         <v>92.25</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="58">
         <f>(C7*$E$4)</f>
         <v>73.8</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="58">
         <f>(C7*$F$4)</f>
         <v>138.375</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="58">
         <f>(C7-D7-E7-F7)</f>
         <v>618.07500000000005</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.9">
-      <c r="A8" s="70">
+      <c r="A8" s="44">
         <v>4</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="57">
         <v>419.23</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="58">
         <f>(C8*$D$4)</f>
         <v>41.923000000000002</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="58">
         <f>(C8*$E$4)</f>
         <v>33.538400000000003</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="58">
         <f>(C8*$F$4)</f>
         <v>62.884500000000003</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="58">
         <f>(C8-D8-E8-F8)</f>
         <v>280.88409999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.9">
-      <c r="A9" s="70">
+      <c r="A9" s="44">
         <v>5</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="57">
         <v>497.13</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="58">
         <f>(C9*$D$4)</f>
         <v>49.713000000000001</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="58">
         <f>(C9*$E$4)</f>
         <v>39.770400000000002</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="58">
         <f>(C9*$F$4)</f>
-        <v>74.569500000000005</v>
-      </c>
-      <c r="G9" s="72">
+        <v>74.569499999999991</v>
+      </c>
+      <c r="G9" s="58">
         <f>(C9-D9-E9-F9)</f>
         <v>333.07709999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.9">
-      <c r="A10" s="70">
+      <c r="A10" s="44">
         <v>6</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="57">
         <v>497.13</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="58">
         <f>(C10*$D$4)</f>
         <v>49.713000000000001</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="58">
         <f>(C10*$E$4)</f>
         <v>39.770400000000002</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="58">
         <f>(C10*$F$4)</f>
-        <v>74.569500000000005</v>
-      </c>
-      <c r="G10" s="72">
+        <v>74.569499999999991</v>
+      </c>
+      <c r="G10" s="58">
         <f>(C10-D10-E10-F10)</f>
         <v>333.07709999999997</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.9">
-      <c r="A11" s="70">
+      <c r="A11" s="44">
         <v>7</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="57">
         <v>497.13</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="58">
         <f>(C11*$D$4)</f>
         <v>49.713000000000001</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="58">
         <f>(C11*$E$4)</f>
         <v>39.770400000000002</v>
       </c>
-      <c r="F11" s="72">
+      <c r="F11" s="58">
         <f>(C11*$F$4)</f>
-        <v>74.569500000000005</v>
-      </c>
-      <c r="G11" s="72">
+        <v>74.569499999999991</v>
+      </c>
+      <c r="G11" s="58">
         <f>(C11-D11-E11-F11)</f>
         <v>333.07709999999997</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.9">
-      <c r="A12" s="70">
+      <c r="A12" s="44">
         <v>8</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="57">
         <v>497.13</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="58">
         <f>(C12*$D$4)</f>
         <v>49.713000000000001</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="58">
         <f>(C12*$E$4)</f>
         <v>39.770400000000002</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="58">
         <f>(C12*$F$4)</f>
-        <v>74.569500000000005</v>
-      </c>
-      <c r="G12" s="72">
+        <v>74.569499999999991</v>
+      </c>
+      <c r="G12" s="58">
         <f>(C12-D12-E12-F12)</f>
         <v>333.07709999999997</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.9">
-      <c r="A13" s="70">
+      <c r="A13" s="44">
         <v>9</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="57">
         <v>497.13</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="58">
         <f>(C13*$D$4)</f>
         <v>49.713000000000001</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="58">
         <f>(C13*$E$4)</f>
         <v>39.770400000000002</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="58">
         <f>(C13*$F$4)</f>
-        <v>74.569500000000005</v>
-      </c>
-      <c r="G13" s="72">
+        <v>74.569499999999991</v>
+      </c>
+      <c r="G13" s="58">
         <f>(C13-D13-E13-F13)</f>
         <v>333.07709999999997</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.9">
-      <c r="A14" s="70">
+      <c r="A14" s="44">
         <v>9</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="57">
         <v>497.13</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="58">
         <f>(C14*$D$4)</f>
         <v>49.713000000000001</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="58">
         <f>(C14*$E$4)</f>
         <v>39.770400000000002</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="58">
         <f>(C14*$F$4)</f>
-        <v>74.569500000000005</v>
-      </c>
-      <c r="G14" s="72">
+        <v>74.569499999999991</v>
+      </c>
+      <c r="G14" s="58">
         <f>(C14-D14-E14-F14)</f>
         <v>333.07709999999997</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.9">
-      <c r="A15" s="70">
+      <c r="A15" s="44">
         <v>9</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="57">
         <v>497.13</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="58">
         <f>(C15*$D$4)</f>
         <v>49.713000000000001</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="58">
         <f>(C15*$E$4)</f>
         <v>39.770400000000002</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="58">
         <f>(C15*$F$4)</f>
-        <v>74.569500000000005</v>
-      </c>
-      <c r="G15" s="72">
+        <v>74.569499999999991</v>
+      </c>
+      <c r="G15" s="58">
         <f>(C15-D15-E15-F15)</f>
         <v>333.07709999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.9">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70" t="s">
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="56"/>
+      <c r="B16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="59">
         <f>SUM(C5:C15)</f>
-        <v>6533.4</v>
-      </c>
-      <c r="D16" s="73">
+        <v>6533.4000000000005</v>
+      </c>
+      <c r="D16" s="59">
         <f>SUM(D5:D15)</f>
         <v>653.34</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="59">
         <f>SUM(E5:E15)</f>
         <v>522.67200000000003</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="59">
         <f>SUM(F5:F15)</f>
-        <v>980.01</v>
-      </c>
-      <c r="G16" s="73">
+        <v>980.00999999999965</v>
+      </c>
+      <c r="G16" s="59">
         <f>SUM(G5:G15)</f>
         <v>4377.3779999999997</v>
       </c>
@@ -3234,180 +3568,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="1:4" ht="24.4">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="1:4" ht="19.7">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="65">
         <v>44344</v>
       </c>
-      <c r="D3" s="80">
+      <c r="D3" s="66">
         <v>5.41</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.7">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="81"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="67"/>
     </row>
     <row r="5" spans="1:4" ht="19.7">
-      <c r="A5" s="77"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="82"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="68"/>
     </row>
     <row r="6" spans="1:4" ht="19.7">
-      <c r="A6" s="77"/>
-      <c r="B6" s="84" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="70" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.7">
-      <c r="A7" s="77">
+      <c r="A7" s="63">
         <v>1</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="72">
         <v>1600</v>
       </c>
-      <c r="D7" s="87">
+      <c r="D7" s="73">
         <f>(C7/$D$3)</f>
-        <v>295.74861367837298</v>
+        <v>295.74861367837337</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.7">
-      <c r="A8" s="88">
+      <c r="A8" s="74">
         <v>2</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="76">
         <v>500</v>
       </c>
-      <c r="D8" s="87">
+      <c r="D8" s="73">
         <f>(C8/$D$3)</f>
-        <v>92.421441774491697</v>
+        <v>92.421441774491683</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.7">
-      <c r="A9" s="91">
+      <c r="A9" s="77">
         <v>3</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="76">
         <v>10</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="73">
         <f>(C9/$D$3)</f>
-        <v>1.8484288354898299</v>
+        <v>1.8484288354898335</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.7">
-      <c r="A10" s="88">
+      <c r="A10" s="74">
         <v>4</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="90">
+      <c r="C10" s="76">
         <v>20</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="73">
         <f>(C10/$D$3)</f>
-        <v>3.6968576709796701</v>
+        <v>3.696857670979667</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.7">
-      <c r="A11" s="91">
+      <c r="A11" s="77">
         <v>5</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="90">
+      <c r="C11" s="76">
         <v>35</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="73">
         <f>(C11/$D$3)</f>
-        <v>6.4695009242144197</v>
+        <v>6.4695009242144179</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.7">
-      <c r="A12" s="88">
+      <c r="A12" s="74">
         <v>6</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="90">
+      <c r="C12" s="76">
         <v>50</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="73">
         <f>(C12/$D$3)</f>
-        <v>9.2421441774491697</v>
+        <v>9.2421441774491679</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.7">
-      <c r="A13" s="91">
+      <c r="A13" s="77">
         <v>7</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="90">
+      <c r="C13" s="76">
         <v>450</v>
       </c>
-      <c r="D13" s="87">
+      <c r="D13" s="73">
         <f>(C13/$D$3)</f>
         <v>83.179297597042506</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.7">
-      <c r="A14" s="88">
+      <c r="A14" s="74">
         <v>8</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="90">
+      <c r="C14" s="76">
         <v>80</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D14" s="73">
         <f>(C14/$D$3)</f>
-        <v>14.7874306839187</v>
+        <v>14.787430683918668</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.9">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3424,9 +3758,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3435,6 +3769,7 @@
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
@@ -3442,24 +3777,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
     </row>
     <row r="2" spans="1:7" ht="19.7">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="13.9">
       <c r="A3" t="s">
@@ -3468,26 +3803,26 @@
     </row>
     <row r="4" spans="1:7" ht="13.9"/>
     <row r="5" spans="1:7" ht="13.9">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="94">
+      <c r="B5" s="80">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.9">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="94">
+      <c r="B6" s="80">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.9">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="80">
         <v>27</v>
       </c>
     </row>
@@ -3504,32 +3839,32 @@
     </row>
     <row r="11" spans="1:7" ht="13.9"/>
     <row r="12" spans="1:7" ht="13.9">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
     </row>
     <row r="13" spans="1:7" ht="13.9">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
     </row>
     <row r="14" spans="1:7" ht="13.9">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
     </row>
     <row r="15" spans="1:7" ht="13.9">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="130"/>
     </row>
     <row r="16" spans="1:7" ht="13.9"/>
     <row r="17" spans="1:9" ht="13.9"/>
@@ -3537,36 +3872,36 @@
     <row r="19" spans="1:9" ht="13.9"/>
     <row r="20" spans="1:9" ht="13.9"/>
     <row r="21" spans="1:9" ht="13.9">
-      <c r="A21" s="109" t="s">
+      <c r="A21" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="131"/>
     </row>
     <row r="22" spans="1:9" ht="13.9">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="96">
+      <c r="B22" s="81"/>
+      <c r="C22" s="82">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="13.9">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="96">
+      <c r="B23" s="81"/>
+      <c r="C23" s="82">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="13.9">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="96">
+      <c r="B24" s="81"/>
+      <c r="C24" s="82">
         <v>27</v>
       </c>
     </row>
@@ -3574,498 +3909,528 @@
     <row r="26" spans="1:9" ht="13.9"/>
     <row r="27" spans="1:9" ht="13.9"/>
     <row r="28" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="132" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="132" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="111" t="s">
+      <c r="C28" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="112" t="s">
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="110"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
+      <c r="A29" s="132"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
     </row>
     <row r="30" spans="1:9" ht="13.9">
-      <c r="A30" s="110"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="97" t="s">
+      <c r="A30" s="132"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="97" t="s">
+      <c r="D30" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="97" t="s">
+      <c r="E30" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="98" t="s">
+      <c r="F30" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="98" t="s">
+      <c r="G30" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="98" t="s">
+      <c r="H30" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="98" t="s">
+      <c r="I30" s="84" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="100">
+      <c r="C31" s="86">
         <v>4</v>
       </c>
-      <c r="D31" s="100">
+      <c r="D31" s="86">
         <v>3</v>
       </c>
-      <c r="E31" s="100">
+      <c r="E31" s="86">
         <v>7</v>
       </c>
-      <c r="F31" s="101">
+      <c r="F31" s="87">
         <f>($B$5*C31)</f>
         <v>60</v>
       </c>
-      <c r="G31" s="101">
+      <c r="G31" s="87">
         <f>($B$6*D31)</f>
         <v>63</v>
       </c>
-      <c r="H31" s="101">
+      <c r="H31" s="87">
         <f>($B$7*E31)</f>
         <v>189</v>
       </c>
-      <c r="I31" s="101">
+      <c r="I31" s="87">
         <f>SUM(F31:H31)</f>
         <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="100">
+      <c r="C32" s="86">
         <v>4</v>
       </c>
-      <c r="D32" s="100">
+      <c r="D32" s="86">
         <v>3</v>
       </c>
-      <c r="E32" s="100">
+      <c r="E32" s="86">
         <v>7</v>
       </c>
-      <c r="F32" s="101">
+      <c r="F32" s="87">
         <f>($B$5*C32)</f>
         <v>60</v>
       </c>
-      <c r="G32" s="101">
+      <c r="G32" s="87">
         <f>($B$6*D32)</f>
         <v>63</v>
       </c>
-      <c r="H32" s="101">
+      <c r="H32" s="87">
         <f>($B$7*E32)</f>
         <v>189</v>
       </c>
-      <c r="I32" s="101">
+      <c r="I32" s="87">
         <f>SUM(F32:H32)</f>
         <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="100">
+      <c r="C33" s="86">
         <v>15</v>
       </c>
-      <c r="D33" s="100">
+      <c r="D33" s="86">
         <v>15</v>
       </c>
-      <c r="E33" s="100">
+      <c r="E33" s="86">
         <v>2</v>
       </c>
-      <c r="F33" s="101">
+      <c r="F33" s="87">
         <f>($B$5*C33)</f>
         <v>225</v>
       </c>
-      <c r="G33" s="101">
+      <c r="G33" s="87">
         <f>($B$6*D33)</f>
         <v>315</v>
       </c>
-      <c r="H33" s="101">
+      <c r="H33" s="87">
         <f>($B$7*E33)</f>
         <v>54</v>
       </c>
-      <c r="I33" s="101">
+      <c r="I33" s="87">
         <f>SUM(F33:H33)</f>
         <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="100">
+      <c r="C34" s="86">
         <v>4</v>
       </c>
-      <c r="D34" s="100">
+      <c r="D34" s="86">
         <v>3</v>
       </c>
-      <c r="E34" s="100">
+      <c r="E34" s="86">
         <v>7</v>
       </c>
-      <c r="F34" s="101">
+      <c r="F34" s="87">
         <f>($B$5*C34)</f>
         <v>60</v>
       </c>
-      <c r="G34" s="101">
+      <c r="G34" s="87">
         <f>($B$6*D34)</f>
         <v>63</v>
       </c>
-      <c r="H34" s="101">
+      <c r="H34" s="87">
         <f>($B$7*E34)</f>
         <v>189</v>
       </c>
-      <c r="I34" s="101">
+      <c r="I34" s="87">
         <f>SUM(F34:H34)</f>
         <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="100">
+      <c r="C35" s="86">
         <v>4</v>
       </c>
-      <c r="D35" s="100">
+      <c r="D35" s="86">
         <v>3</v>
       </c>
-      <c r="E35" s="100">
+      <c r="E35" s="86">
         <v>7</v>
       </c>
-      <c r="F35" s="101">
+      <c r="F35" s="87">
         <f>($B$5*C35)</f>
         <v>60</v>
       </c>
-      <c r="G35" s="101">
+      <c r="G35" s="87">
         <f>($B$6*D35)</f>
         <v>63</v>
       </c>
-      <c r="H35" s="101">
+      <c r="H35" s="87">
         <f>($B$7*E35)</f>
         <v>189</v>
       </c>
-      <c r="I35" s="101">
+      <c r="I35" s="87">
         <f>SUM(F35:H35)</f>
         <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="100">
+      <c r="C36" s="86">
         <v>7</v>
       </c>
-      <c r="D36" s="100">
+      <c r="D36" s="86">
         <v>4</v>
       </c>
-      <c r="E36" s="100">
+      <c r="E36" s="86">
         <v>2</v>
       </c>
-      <c r="F36" s="101">
+      <c r="F36" s="87">
         <f>($B$5*C36)</f>
         <v>105</v>
       </c>
-      <c r="G36" s="101">
+      <c r="G36" s="87">
         <f>($B$6*D36)</f>
         <v>84</v>
       </c>
-      <c r="H36" s="101">
+      <c r="H36" s="87">
         <f>($B$7*E36)</f>
         <v>54</v>
       </c>
-      <c r="I36" s="101">
+      <c r="I36" s="87">
         <f>SUM(F36:H36)</f>
         <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="100">
+      <c r="C37" s="86">
         <v>9</v>
       </c>
-      <c r="D37" s="100">
+      <c r="D37" s="86">
         <v>9</v>
       </c>
-      <c r="E37" s="100">
+      <c r="E37" s="86">
         <v>9</v>
       </c>
-      <c r="F37" s="101">
+      <c r="F37" s="87">
         <f>($B$5*C37)</f>
         <v>135</v>
       </c>
-      <c r="G37" s="101">
+      <c r="G37" s="87">
         <f>($B$6*D37)</f>
         <v>189</v>
       </c>
-      <c r="H37" s="101">
+      <c r="H37" s="87">
         <f>($B$7*E37)</f>
         <v>243</v>
       </c>
-      <c r="I37" s="101">
+      <c r="I37" s="87">
         <f>SUM(F37:H37)</f>
         <v>567</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15">
-      <c r="A38" s="70" t="s">
+      <c r="A38" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="100">
+      <c r="C38" s="86">
         <v>10</v>
       </c>
-      <c r="D38" s="100">
+      <c r="D38" s="86">
         <v>6</v>
       </c>
-      <c r="E38" s="100">
+      <c r="E38" s="86">
         <v>5</v>
       </c>
-      <c r="F38" s="101">
+      <c r="F38" s="87">
         <f>($B$5*C38)</f>
         <v>150</v>
       </c>
-      <c r="G38" s="101">
+      <c r="G38" s="87">
         <f>($B$6*D38)</f>
         <v>126</v>
       </c>
-      <c r="H38" s="101">
+      <c r="H38" s="87">
         <f>($B$7*E38)</f>
         <v>135</v>
       </c>
-      <c r="I38" s="101">
+      <c r="I38" s="87">
         <f>SUM(F38:H38)</f>
         <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="100">
+      <c r="C39" s="86">
         <v>4</v>
       </c>
-      <c r="D39" s="100">
+      <c r="D39" s="86">
         <v>3</v>
       </c>
-      <c r="E39" s="100">
+      <c r="E39" s="86">
         <v>7</v>
       </c>
-      <c r="F39" s="101">
+      <c r="F39" s="87">
         <f>($B$5*C39)</f>
         <v>60</v>
       </c>
-      <c r="G39" s="101">
+      <c r="G39" s="87">
         <f>($B$6*D39)</f>
         <v>63</v>
       </c>
-      <c r="H39" s="101">
+      <c r="H39" s="87">
         <f>($B$7*E39)</f>
         <v>189</v>
       </c>
-      <c r="I39" s="101">
+      <c r="I39" s="87">
         <f>SUM(F39:H39)</f>
         <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="102" t="s">
+      <c r="B40" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="100">
+      <c r="C40" s="86">
         <v>4</v>
       </c>
-      <c r="D40" s="100">
+      <c r="D40" s="86">
         <v>3</v>
       </c>
-      <c r="E40" s="100">
+      <c r="E40" s="86">
         <v>7</v>
       </c>
-      <c r="F40" s="101">
+      <c r="F40" s="87">
         <f>($B$5*C40)</f>
         <v>60</v>
       </c>
-      <c r="G40" s="101">
+      <c r="G40" s="87">
         <f>($B$6*D40)</f>
         <v>63</v>
       </c>
-      <c r="H40" s="101">
+      <c r="H40" s="87">
         <f>($B$7*E40)</f>
         <v>189</v>
       </c>
-      <c r="I40" s="101">
+      <c r="I40" s="87">
         <f>SUM(F40:H40)</f>
         <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="102" t="s">
+      <c r="B41" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="100">
+      <c r="C41" s="86">
         <v>4</v>
       </c>
-      <c r="D41" s="100">
+      <c r="D41" s="86">
         <v>3</v>
       </c>
-      <c r="E41" s="100">
+      <c r="E41" s="86">
         <v>7</v>
       </c>
-      <c r="F41" s="101">
+      <c r="F41" s="87">
         <f>($B$5*C41)</f>
         <v>60</v>
       </c>
-      <c r="G41" s="101">
+      <c r="G41" s="87">
         <f>($B$6*D41)</f>
         <v>63</v>
       </c>
-      <c r="H41" s="101">
+      <c r="H41" s="87">
         <f>($B$7*E41)</f>
         <v>189</v>
       </c>
-      <c r="I41" s="101">
+      <c r="I41" s="87">
         <f>SUM(F41:H41)</f>
         <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="13.9">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="103">
+      <c r="B42" s="56"/>
+      <c r="C42" s="89">
         <f>SUM(C31:C41)</f>
         <v>69</v>
       </c>
-      <c r="D42" s="103">
+      <c r="D42" s="89">
         <f>SUM(D31:D41)</f>
         <v>55</v>
       </c>
-      <c r="E42" s="103">
+      <c r="E42" s="89">
         <f>SUM(E31:E41)</f>
         <v>67</v>
       </c>
-      <c r="F42" s="104">
+      <c r="F42" s="90">
         <f>SUM(F31:F41)</f>
         <v>1035</v>
       </c>
-      <c r="G42" s="104">
+      <c r="G42" s="90">
         <f>SUM(G31:G41)</f>
         <v>1155</v>
       </c>
-      <c r="H42" s="104">
+      <c r="H42" s="90">
         <f>SUM(H31:H41)</f>
         <v>1809</v>
       </c>
-      <c r="I42" s="104">
+      <c r="I42" s="90">
         <f>SUM(I31:I41)</f>
         <v>3999</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="13.9"/>
     <row r="44" spans="1:9" ht="13.9">
-      <c r="B44" s="105" t="s">
+      <c r="B44" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="105" t="s">
+      <c r="C44" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="95" t="s">
+      <c r="D44" s="81" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="13.9">
-      <c r="B45" s="105" t="s">
+      <c r="B45" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="107"/>
+      <c r="C45" s="92">
+        <f>SUMIF($B$31:$B$41, B45, $I$31:$I$41)</f>
+        <v>1218</v>
+      </c>
+      <c r="D45" s="93">
+        <f>(C45/$C$48)</f>
+        <v>0.30457614403600902</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="13.9">
-      <c r="B46" s="105" t="s">
+      <c r="B46" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
+      <c r="C46" s="92">
+        <f t="shared" ref="C46:C48" si="0">SUMIF($B$31:$B$41, B46, $I$31:$I$41)</f>
+        <v>1434</v>
+      </c>
+      <c r="D46" s="93">
+        <f t="shared" ref="D46:D47" si="1">(C46/$C$48)</f>
+        <v>0.35858964741185295</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="13.9">
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
+      <c r="C47" s="92">
+        <f t="shared" si="0"/>
+        <v>1347</v>
+      </c>
+      <c r="D47" s="93">
+        <f t="shared" si="1"/>
+        <v>0.33683420855213803</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="13.9">
-      <c r="B48" s="105" t="s">
+      <c r="B48" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-    </row>
-    <row r="49" ht="13.9"/>
+      <c r="C48" s="92">
+        <f>SUM(C45:C47)</f>
+        <v>3999</v>
+      </c>
+      <c r="D48" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="13.9">
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="15">
+      <c r="D51" s="54"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A21:C21"/>
@@ -4079,7 +4444,7 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31:B41" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
@@ -4087,6 +4452,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45:B47" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Assis,São Paulo,Candido Mota"</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F50:F55" xr:uid="{3BFB74AE-67E6-4E53-A5F9-3C09ACB2F04B}">
+      <formula1>$B$31:$B$41</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -4096,4 +4464,780 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F08509-F679-4D17-AE78-4D41B66B68CE}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="33.75">
+      <c r="A1" s="135" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.25">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="94"/>
+    </row>
+    <row r="3" spans="1:7" ht="27">
+      <c r="A3" s="94"/>
+      <c r="B3" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="99">
+        <v>99</v>
+      </c>
+      <c r="D3" s="99">
+        <v>3</v>
+      </c>
+      <c r="E3" s="100" t="str">
+        <f>IF(AND(D3&gt;=7,C3&lt;100),"Aprovado","Reprovado")</f>
+        <v>Reprovado</v>
+      </c>
+      <c r="F3" s="101" t="str">
+        <f>IF(AND(D3&gt;=7,C3&lt;100),"APROVADO",IF(AND(D3 &gt;=4,C3&lt;100),"EXAME","REPROVADO DIRETO"))</f>
+        <v>REPROVADO DIRETO</v>
+      </c>
+      <c r="G3" s="101" t="str">
+        <f>IF(AND(E3&gt;=7,D3&lt;100),"APROVADO",IF(AND(E3 &gt;=4,D3&lt;100),"EXAME","REPROVADO DIRETO"))</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27">
+      <c r="A4" s="94"/>
+      <c r="B4" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="99">
+        <v>167</v>
+      </c>
+      <c r="D4" s="99">
+        <v>9</v>
+      </c>
+      <c r="E4" s="100" t="str">
+        <f>IF(AND(D4&gt;=7,C4&lt;100),"Aprovado","Reprovado")</f>
+        <v>Reprovado</v>
+      </c>
+      <c r="F4" s="101" t="str">
+        <f>IF(AND(D4&gt;=7,C4&lt;100),"APROVADO",IF(AND(D4 &gt;=4,C4&lt;100),"EXAME","REPROVADO DIRETO"))</f>
+        <v>REPROVADO DIRETO</v>
+      </c>
+      <c r="G4" s="94"/>
+    </row>
+    <row r="5" spans="1:7" ht="27">
+      <c r="A5" s="94"/>
+      <c r="B5" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="99">
+        <v>90</v>
+      </c>
+      <c r="D5" s="99">
+        <v>7</v>
+      </c>
+      <c r="E5" s="100" t="str">
+        <f t="shared" ref="E4:E7" si="0">IF(AND(D5&gt;=7,C5&lt;100),"Aprovado","Reprovado")</f>
+        <v>Aprovado</v>
+      </c>
+      <c r="F5" s="101" t="str">
+        <f t="shared" ref="F4:F7" si="1">IF(AND(D5&gt;=7,C5&lt;100),"APROVADO",IF(AND(D5 &gt;=4,C5&lt;100),"EXAME","REPROVADO DIRETO"))</f>
+        <v>APROVADO</v>
+      </c>
+      <c r="G5" s="94"/>
+    </row>
+    <row r="6" spans="1:7" ht="27">
+      <c r="A6" s="94"/>
+      <c r="B6" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="99">
+        <v>0</v>
+      </c>
+      <c r="D6" s="99">
+        <v>5</v>
+      </c>
+      <c r="E6" s="100" t="str">
+        <f t="shared" si="0"/>
+        <v>Reprovado</v>
+      </c>
+      <c r="F6" s="101" t="str">
+        <f>IF(AND(D6&gt;=7,C6&lt;100),"APROVADO",IF(AND(D6 &gt;=4,C6&lt;100),"EXAME","REPROVADO DIRETO"))</f>
+        <v>EXAME</v>
+      </c>
+      <c r="G6" s="94"/>
+    </row>
+    <row r="7" spans="1:7" ht="27">
+      <c r="A7" s="94"/>
+      <c r="B7" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="99">
+        <v>3</v>
+      </c>
+      <c r="D7" s="99">
+        <v>3</v>
+      </c>
+      <c r="E7" s="100" t="str">
+        <f t="shared" si="0"/>
+        <v>Reprovado</v>
+      </c>
+      <c r="F7" s="101" t="str">
+        <f t="shared" si="1"/>
+        <v>REPROVADO DIRETO</v>
+      </c>
+      <c r="G7" s="94"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="94"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="94"/>
+      <c r="B11" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="94"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="94"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="94"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="94"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="94"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="94"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="94"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="94"/>
+      <c r="B27" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0D3757-4706-4B26-B1F9-C1A0CF29A72C}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="66.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5">
+      <c r="A1" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="138"/>
+    </row>
+    <row r="2" spans="1:10" ht="21">
+      <c r="A2" s="103"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+    </row>
+    <row r="3" spans="1:10" ht="21">
+      <c r="A3" s="103"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1">
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+    </row>
+    <row r="5" spans="1:10" ht="33.75" customHeight="1">
+      <c r="A5" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75">
+      <c r="A6" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="110">
+        <v>10</v>
+      </c>
+      <c r="C6" s="110">
+        <v>10</v>
+      </c>
+      <c r="D6" s="111">
+        <f>SUM(B6/2,C6/2)</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="110">
+        <v>10</v>
+      </c>
+      <c r="F6" s="110">
+        <v>10</v>
+      </c>
+      <c r="G6" s="111">
+        <f>SUM(E6/2,F6/2)</f>
+        <v>10</v>
+      </c>
+      <c r="H6" s="115">
+        <f>SUM(D6/2,G6/2)</f>
+        <v>10</v>
+      </c>
+      <c r="I6" s="112">
+        <v>25</v>
+      </c>
+      <c r="J6" s="113" t="str">
+        <f>IF(AND(H6&gt;=7,I6&lt;=25),"APROVADO",IF(AND(H6&gt;=4,I6&lt;=25),"EXAME",IF(I6&gt;25,"REPROVADO POR FALTA","REPROVADO")))</f>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.75">
+      <c r="A7" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="110">
+        <v>9</v>
+      </c>
+      <c r="C7" s="110">
+        <v>2</v>
+      </c>
+      <c r="D7" s="111">
+        <f t="shared" ref="D7:D12" si="0">SUM(B7/2,C7/2)</f>
+        <v>5.5</v>
+      </c>
+      <c r="E7" s="110">
+        <v>10</v>
+      </c>
+      <c r="F7" s="110">
+        <v>8</v>
+      </c>
+      <c r="G7" s="111">
+        <f t="shared" ref="G7:G12" si="1">SUM(E7/2,F7/2)</f>
+        <v>9</v>
+      </c>
+      <c r="H7" s="115">
+        <f t="shared" ref="H7:H12" si="2">SUM(D7/2,G7/2)</f>
+        <v>7.25</v>
+      </c>
+      <c r="I7" s="112">
+        <v>50</v>
+      </c>
+      <c r="J7" s="113" t="str">
+        <f t="shared" ref="J7:J12" si="3">IF(AND(H7&gt;=7,I7&lt;=25),"APROVADO",IF(AND(H7&gt;=4,I7&lt;=25),"EXAME",IF(I7&gt;25,"REPROVADO POR FALTA","REPROVADO")))</f>
+        <v>REPROVADO POR FALTA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75">
+      <c r="A8" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="110">
+        <v>8</v>
+      </c>
+      <c r="C8" s="110">
+        <v>3</v>
+      </c>
+      <c r="D8" s="111">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E8" s="110">
+        <v>2</v>
+      </c>
+      <c r="F8" s="110">
+        <v>4</v>
+      </c>
+      <c r="G8" s="111">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="115">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="I8" s="112">
+        <v>24</v>
+      </c>
+      <c r="J8" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v>EXAME</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.75">
+      <c r="A9" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="110">
+        <v>5</v>
+      </c>
+      <c r="C9" s="110">
+        <v>4</v>
+      </c>
+      <c r="D9" s="111">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="E9" s="110">
+        <v>3</v>
+      </c>
+      <c r="F9" s="110">
+        <v>2</v>
+      </c>
+      <c r="G9" s="111">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="H9" s="115">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="I9" s="112">
+        <v>10</v>
+      </c>
+      <c r="J9" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v>REPROVADO</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75">
+      <c r="A10" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="110">
+        <v>3</v>
+      </c>
+      <c r="C10" s="110">
+        <v>8</v>
+      </c>
+      <c r="D10" s="111">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="E10" s="110">
+        <v>4</v>
+      </c>
+      <c r="F10" s="110">
+        <v>5</v>
+      </c>
+      <c r="G10" s="111">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="H10" s="115">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="I10" s="112">
+        <v>70</v>
+      </c>
+      <c r="J10" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v>REPROVADO POR FALTA</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75">
+      <c r="A11" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="110">
+        <v>4</v>
+      </c>
+      <c r="C11" s="110">
+        <v>8</v>
+      </c>
+      <c r="D11" s="111">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="110">
+        <v>10</v>
+      </c>
+      <c r="F11" s="110">
+        <v>7</v>
+      </c>
+      <c r="G11" s="111">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="H11" s="115">
+        <f t="shared" si="2"/>
+        <v>7.25</v>
+      </c>
+      <c r="I11" s="112">
+        <v>25</v>
+      </c>
+      <c r="J11" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v>APROVADO</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75">
+      <c r="A12" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="110">
+        <v>2</v>
+      </c>
+      <c r="C12" s="110">
+        <v>4</v>
+      </c>
+      <c r="D12" s="111">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="110">
+        <v>2</v>
+      </c>
+      <c r="F12" s="110">
+        <v>9</v>
+      </c>
+      <c r="G12" s="111">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="H12" s="115">
+        <f t="shared" si="2"/>
+        <v>4.25</v>
+      </c>
+      <c r="I12" s="112">
+        <v>25</v>
+      </c>
+      <c r="J12" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v>EXAME</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="94"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="94"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J12">
+    <cfRule type="containsText" dxfId="3" priority="4" stopIfTrue="1" operator="containsText" text="APROVADO">
+      <formula>NOT(ISERROR(SEARCH("APROVADO",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="EXAME">
+      <formula>NOT(ISERROR(SEARCH("EXAME",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="REPROVADO">
+      <formula>NOT(ISERROR(SEARCH("REPROVADO",J6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J12">
+    <cfRule type="containsText" dxfId="0" priority="3" stopIfTrue="1" operator="containsText" text="REPROVADO POR FALTA">
+      <formula>NOT(ISERROR(SEARCH("REPROVADO POR FALTA",J6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>